--- a/biology/Botanique/Cordon_de_Royat/Cordon_de_Royat.xlsx
+++ b/biology/Botanique/Cordon_de_Royat/Cordon_de_Royat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cordon de Royat est un type de taille courte utilisée dans certains vignobles. Il est formé d'un ou deux bras horizontaux, avec 4 à 6 coursons à 2 yeux[1]. Il existe la taille en Royat double, appelée cordon bilatéral.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cordon de Royat est un type de taille courte utilisée dans certains vignobles. Il est formé d'un ou deux bras horizontaux, avec 4 à 6 coursons à 2 yeux. Il existe la taille en Royat double, appelée cordon bilatéral.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille en cordon de Royat est originaire de la ferme école de Royat qui a fonctionné de 1849 à 1928 sur la commune de Montaut en Ariège[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille en cordon de Royat est originaire de la ferme école de Royat qui a fonctionné de 1849 à 1928 sur la commune de Montaut en Ariège.
 </t>
         </is>
       </c>
@@ -544,9 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cépages
-Géographie
-En Bourgogne, c'est l’une des deux tailles majoritaires, avec la taille guyot.
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Bourgogne, c'est l’une des deux tailles majoritaires, avec la taille guyot.
 Elle est également pratiquée dans de nombreuses régions du monde.
 </t>
         </is>
@@ -576,9 +594,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation correcte de cette taille prend 4 à 7 années, afin d'établir des bras suffisamment vigoureux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation correcte de cette taille prend 4 à 7 années, afin d'établir des bras suffisamment vigoureux.
 </t>
         </is>
       </c>
@@ -607,7 +627,9 @@
           <t>Conduite</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La conduite doit permettre de respecter les flux de sève, une répartition latérale de la végétation, et la possibilité de rajeunir le cep en régénérant les bras.
 			Cordon de Royat double, avant la taille
